--- a/Fase3/IC_Project_Fase3_Simple_Excel.xlsx
+++ b/Fase3/IC_Project_Fase3_Simple_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luist\OneDrive\Ambiente de Trabalho\ISEC\ano3_EngInformatica\IC\IC_PraticalWork\Fase3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA07384-7C55-49C3-9A86-33D9EF6D5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formas dos Conjuntos" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Relatório de Classificação" sheetId="3" r:id="rId3"/>
     <sheet name="AUC por Classe" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Conjunto</t>
   </si>
@@ -78,12 +84,27 @@
   <si>
     <t>AUC</t>
   </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Total Corrente</t>
+  </si>
+  <si>
+    <t>Contar</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,28 +152,3600 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Matriz</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Confusão - Simple</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Matriz de Confusão'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Matriz de Confusão'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Matriz de Confusão'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-061B-476F-9C3E-25CC6088A1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Matriz de Confusão'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>litter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Matriz de Confusão'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Matriz de Confusão'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-061B-476F-9C3E-25CC6088A1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Matriz de Confusão'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Matriz de Confusão'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Matriz de Confusão'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-061B-476F-9C3E-25CC6088A1D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="90362447"/>
+        <c:axId val="92028991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="90362447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92028991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92028991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90362447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Relatório classificação - Simple</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Relatório de Classificação'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Relatório de Classificação'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>macro avg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>weighted avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Relatório de Classificação'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.98219584569732943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92054794520547945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9762532981530343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95929694727104531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95966569635194776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96068762238851202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-651D-4DFA-A8DF-577FB0A93CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Relatório de Classificação'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Relatório de Classificação'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>macro avg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>weighted avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Relatório de Classificação'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9068493150684932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98533724340175954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95929694727104531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95961774171230652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95929694727104531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-651D-4DFA-A8DF-577FB0A93CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Relatório de Classificação'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Relatório de Classificação'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>macro avg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>weighted avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Relatório de Classificação'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94301994301994307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95184135977337114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98143236074270557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95929694727104531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95876455451200648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95912795389779226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-651D-4DFA-A8DF-577FB0A93CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="149501567"/>
+        <c:axId val="87645967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="149501567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87645967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87645967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149501567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AUC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - SimPLe</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AUC por Classe'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="10800000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AUC por Classe'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>clean</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>litter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>recycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUC por Classe'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99225721282620338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99569033843227395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9985344664778093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-431B-4E4C-B946-5AC86A65F4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="326"/>
+        <c:overlap val="-58"/>
+        <c:axId val="93351471"/>
+        <c:axId val="1845412095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93351471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845412095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1845412095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="99000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93351471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="223">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="10800000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="10800000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="99000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F2B6D6-9314-71A3-03DD-1EAB3AEEDFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE253DF-5A22-D99A-84E4-AA6E7C3E50DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3EEC17-392E-D52F-A211-5A4D57D5FC45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{64A010C6-E3C2-4314-9B53-AC0A4CBB7CA9}" name="Tabela4" displayName="Tabela4" ref="A1:D4" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D4" xr:uid="{64A010C6-E3C2-4314-9B53-AC0A4CBB7CA9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E9C9013A-13B3-48A3-93FF-A6C3713AF374}" name="-" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{46B6CFED-EAE7-43FE-AD77-1B9CB2C120BA}" name="clean"/>
+    <tableColumn id="3" xr3:uid="{826AECEA-0D38-475C-A20C-E2340F17E475}" name="litter"/>
+    <tableColumn id="4" xr3:uid="{F90BF534-2827-4920-8FDB-A799E3C4B533}" name="recycle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5D8A29A4-2C3F-4FA9-8D8C-09FF494D08F6}" name="Tabela5" displayName="Tabela5" ref="A1:E7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E7" xr:uid="{5D8A29A4-2C3F-4FA9-8D8C-09FF494D08F6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B87DD9A6-9DFE-4AD7-8756-A3C263775F74}" name="-" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1CD4B32F-A42F-49EC-8221-1EB6A7A33037}" name="precision"/>
+    <tableColumn id="3" xr3:uid="{BC0B7568-DE66-42A3-8809-A23BBA2FA43B}" name="recall"/>
+    <tableColumn id="4" xr3:uid="{E3C9C147-4A9E-4462-A2E1-7B24780D6582}" name="f1-score"/>
+    <tableColumn id="5" xr3:uid="{22B8DFE0-4E75-4B8D-9BE3-358AFC977E13}" name="support"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D2BD0E7-6FA0-4688-80F9-A62C92CFB1C8}" name="Tabela3" displayName="Tabela3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:B4" xr:uid="{5D2BD0E7-6FA0-4688-80F9-A62C92CFB1C8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5CA6AEEF-1B83-490A-BD8C-ED3E460D8420}" name="Classe"/>
+    <tableColumn id="2" xr3:uid="{33D63319-932F-4B91-91DB-792EEC64EC45}" name="AUC"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +3783,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +3817,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +3852,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,14 +4028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -456,7 +4051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,7 +4059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -478,14 +4073,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,7 +4102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -510,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -524,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -540,18 +4146,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -565,41 +4187,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9821958456973294</v>
+        <v>0.98219584569732943</v>
       </c>
       <c r="C2">
         <v>0.9068493150684932</v>
       </c>
       <c r="D2">
-        <v>0.9430199430199431</v>
+        <v>0.94301994301994307</v>
       </c>
       <c r="E2">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9205479452054794</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="C3">
-        <v>0.9853372434017595</v>
+        <v>0.98533724340175954</v>
       </c>
       <c r="D3">
-        <v>0.9518413597733711</v>
+        <v>0.95184135977337114</v>
       </c>
       <c r="E3">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,61 +4229,61 @@
         <v>0.9762532981530343</v>
       </c>
       <c r="C4">
-        <v>0.9866666666666667</v>
+        <v>0.98666666666666669</v>
       </c>
       <c r="D4">
-        <v>0.9814323607427056</v>
+        <v>0.98143236074270557</v>
       </c>
       <c r="E4">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.9592969472710453</v>
+        <v>0.95929694727104531</v>
       </c>
       <c r="C5">
-        <v>0.9592969472710453</v>
+        <v>0.95929694727104531</v>
       </c>
       <c r="D5">
-        <v>0.9592969472710453</v>
+        <v>0.95929694727104531</v>
       </c>
       <c r="E5">
-        <v>0.9592969472710453</v>
+        <v>0.95929694727104531</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.9596656963519478</v>
+        <v>0.95966569635194776</v>
       </c>
       <c r="C6">
-        <v>0.9596177417123065</v>
+        <v>0.95961774171230652</v>
       </c>
       <c r="D6">
-        <v>0.9587645545120065</v>
+        <v>0.95876455451200648</v>
       </c>
       <c r="E6">
         <v>1081</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.960687622388512</v>
+        <v>0.96068762238851202</v>
       </c>
       <c r="C7">
-        <v>0.9592969472710453</v>
+        <v>0.95929694727104531</v>
       </c>
       <c r="D7">
-        <v>0.9591279538977923</v>
+        <v>0.95912795389779226</v>
       </c>
       <c r="E7">
         <v>1081</v>
@@ -669,42 +4291,52 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9922572128262034</v>
+        <v>0.99225721282620338</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9956903384322739</v>
+        <v>0.99569033843227395</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -714,5 +4346,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>